--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_27.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_27.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9933487383734595</v>
+        <v>0.8357993374877771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8023788271393115</v>
+        <v>0.6128271798801843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7521406462976826</v>
+        <v>0.7185741970232276</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9890492135982976</v>
+        <v>0.808462290862665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02768605408809393</v>
+        <v>0.3891872009740125</v>
       </c>
       <c r="G2" t="n">
-        <v>1.321493692881253</v>
+        <v>2.589026430908118</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8865785364821148</v>
+        <v>1.006643779242284</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05496105394362343</v>
+        <v>0.6599197550624573</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2230044232675089</v>
+        <v>1.060230646533663</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1663912680644448</v>
+        <v>0.62384870038657</v>
       </c>
       <c r="L2" t="n">
-        <v>1.425680744098592</v>
+        <v>0.7764076084939944</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1690117642062141</v>
+        <v>0.6336736937977485</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1736529101847</v>
+        <v>35.88738962936752</v>
       </c>
       <c r="O2" t="n">
-        <v>278.5088254534011</v>
+        <v>72.85197321759334</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9933674476425092</v>
+        <v>0.8358703596065488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8023357592697499</v>
+        <v>0.6127420361992888</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7522051370232906</v>
+        <v>0.7186931397635279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9894549417527877</v>
+        <v>0.8090221238110653</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02760817625619615</v>
+        <v>0.3890188648711669</v>
       </c>
       <c r="G3" t="n">
-        <v>1.321781687923322</v>
+        <v>2.589595787094316</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8863478568960019</v>
+        <v>1.006218327956927</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05292473927475957</v>
+        <v>0.6579909190966926</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2239698812397146</v>
+        <v>1.063107162189061</v>
       </c>
       <c r="K3" t="n">
-        <v>0.166157083075613</v>
+        <v>0.6237137683835166</v>
       </c>
       <c r="L3" t="n">
-        <v>1.424483350879413</v>
+        <v>0.7765043194642366</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1687738910379073</v>
+        <v>0.6335366367505294</v>
       </c>
       <c r="N3" t="n">
-        <v>137.1792866179265</v>
+        <v>35.88825488145361</v>
       </c>
       <c r="O3" t="n">
-        <v>278.5144591611429</v>
+        <v>72.85283846967944</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9933871166294658</v>
+        <v>0.8359407077800127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8022879291784408</v>
+        <v>0.6126556212145954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7522574039183508</v>
+        <v>0.7188111662848209</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9898722042608664</v>
+        <v>0.8095839502707699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02752630357288965</v>
+        <v>0.388852126148526</v>
       </c>
       <c r="G4" t="n">
-        <v>1.322101527964142</v>
+        <v>2.590173644494866</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8861609012429804</v>
+        <v>1.005796153933832</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05083053467849449</v>
+        <v>0.6560552147315015</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2248969302195256</v>
+        <v>1.065991013786316</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1659105288186668</v>
+        <v>0.6235800879987478</v>
       </c>
       <c r="L4" t="n">
-        <v>1.423224535714191</v>
+        <v>0.7766001127217195</v>
       </c>
       <c r="M4" t="n">
-        <v>0.168523453797878</v>
+        <v>0.6334008510333319</v>
       </c>
       <c r="N4" t="n">
-        <v>137.1852264757969</v>
+        <v>35.88911229214057</v>
       </c>
       <c r="O4" t="n">
-        <v>278.5203990190133</v>
+        <v>72.8536958803664</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9934063686434872</v>
+        <v>0.8360105262722541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8022417248523894</v>
+        <v>0.6125677822076421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7523232779121592</v>
+        <v>0.7189280167010174</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9902945000071113</v>
+        <v>0.810148780323166</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02744616655055803</v>
+        <v>0.3886866428724178</v>
       </c>
       <c r="G5" t="n">
-        <v>1.322410496505199</v>
+        <v>2.590761024338825</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8859252737867211</v>
+        <v>1.005378186770474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04871106869330109</v>
+        <v>0.6541091618549798</v>
       </c>
       <c r="J5" t="n">
-        <v>0.226019787172971</v>
+        <v>1.068889135205717</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1656688460470406</v>
+        <v>0.6234473858092741</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42199240681682</v>
+        <v>0.7766951847111546</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1682779647641928</v>
+        <v>0.6332660589170275</v>
       </c>
       <c r="N5" t="n">
-        <v>137.1910575457065</v>
+        <v>35.88996361060957</v>
       </c>
       <c r="O5" t="n">
-        <v>278.5262300889229</v>
+        <v>72.85454719883539</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9934248722784879</v>
+        <v>0.836079544449695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8021906708534902</v>
+        <v>0.612478882851909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.752364898035821</v>
+        <v>0.7190435345269783</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9907203557165846</v>
+        <v>0.810715132815799</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02736914467587909</v>
+        <v>0.3885230564965556</v>
       </c>
       <c r="G6" t="n">
-        <v>1.322751894830921</v>
+        <v>2.591355494739956</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8857764010176568</v>
+        <v>1.00496498620512</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04657373555922344</v>
+        <v>0.6521578635967896</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2268575314685387</v>
+        <v>1.071788464343383</v>
       </c>
       <c r="K6" t="n">
-        <v>0.165436225403867</v>
+        <v>0.6233161769892994</v>
       </c>
       <c r="L6" t="n">
-        <v>1.420808174176777</v>
+        <v>0.776789166910223</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1680416805784246</v>
+        <v>0.6331327836892989</v>
       </c>
       <c r="N6" t="n">
-        <v>137.1966780136849</v>
+        <v>35.89080552690789</v>
       </c>
       <c r="O6" t="n">
-        <v>278.5318505569013</v>
+        <v>72.85538911513372</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9934361254888076</v>
+        <v>0.8361480490620951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8021237183690997</v>
+        <v>0.6123886572778884</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7523989697860518</v>
+        <v>0.7191576691064209</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99112332631845</v>
+        <v>0.8112843185583869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02732230288749821</v>
+        <v>0.3883606873687708</v>
       </c>
       <c r="G7" t="n">
-        <v>1.323199606402328</v>
+        <v>2.591958833568882</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8856545283426747</v>
+        <v>1.004556733432357</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04455126080952184</v>
+        <v>0.6501968037223378</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2277538346525515</v>
+        <v>1.074698206416035</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1652945942476589</v>
+        <v>0.6231859171778281</v>
       </c>
       <c r="L7" t="n">
-        <v>1.420087968716317</v>
+        <v>0.7768824497866826</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1678978188730855</v>
+        <v>0.633000472416009</v>
       </c>
       <c r="N7" t="n">
-        <v>137.2001039094636</v>
+        <v>35.89164152910993</v>
       </c>
       <c r="O7" t="n">
-        <v>278.53527645268</v>
+        <v>72.85622511733574</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9934411479788962</v>
+        <v>0.8362158235306254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8020540608219563</v>
+        <v>0.612297215430736</v>
       </c>
       <c r="D8" t="n">
-        <v>0.752424854187892</v>
+        <v>0.7192707136429188</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9915092812370508</v>
+        <v>0.811855281475677</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02730139663841999</v>
+        <v>0.3882000488226086</v>
       </c>
       <c r="G8" t="n">
-        <v>1.323665406740819</v>
+        <v>2.592570305621841</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8855619413381564</v>
+        <v>1.004152379680003</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04261418630885146</v>
+        <v>0.6482296208097673</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2288871195107039</v>
+        <v>1.077620992410598</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1652313427846545</v>
+        <v>0.6230570189176979</v>
       </c>
       <c r="L8" t="n">
-        <v>1.419766529350646</v>
+        <v>0.7769747384246815</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1678335712627669</v>
+        <v>0.6328695441371327</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2016348383666</v>
+        <v>35.8924689649612</v>
       </c>
       <c r="O8" t="n">
-        <v>278.536807381583</v>
+        <v>72.85705255318702</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9934487109789262</v>
+        <v>0.8362830619940287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8019920661694756</v>
+        <v>0.6122044438494187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7524496041152589</v>
+        <v>0.7193822681810071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9919123017332199</v>
+        <v>0.8124290430465998</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02726991544888703</v>
+        <v>0.3880406807118512</v>
       </c>
       <c r="G9" t="n">
-        <v>1.324079965267417</v>
+        <v>2.593190669613283</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8854734122830483</v>
+        <v>1.003753355565564</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04059146114393649</v>
+        <v>0.6462527954783327</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2297724364743901</v>
+        <v>1.080569328715675</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1651360513300685</v>
+        <v>0.6229291137134716</v>
       </c>
       <c r="L9" t="n">
-        <v>1.419282497348725</v>
+        <v>0.7770662971833582</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1677367790630278</v>
+        <v>0.6327396245537981</v>
       </c>
       <c r="N9" t="n">
-        <v>137.203942365294</v>
+        <v>35.8932901953189</v>
       </c>
       <c r="O9" t="n">
-        <v>278.5391149085103</v>
+        <v>72.85787378354473</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9934621818268724</v>
+        <v>0.8363495712098932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8019215814890706</v>
+        <v>0.6121105082063943</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7524495922966887</v>
+        <v>0.7194925500187367</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9923477335790509</v>
+        <v>0.8130045609949956</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02721384268468167</v>
+        <v>0.3878830410582393</v>
       </c>
       <c r="G10" t="n">
-        <v>1.324551296649837</v>
+        <v>2.593818817690721</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8854734545573881</v>
+        <v>1.003358883826514</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03840606620611076</v>
+        <v>0.6442699187630899</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2306887724748195</v>
+        <v>1.083516388582812</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1649661864888731</v>
+        <v>0.6228025698873113</v>
       </c>
       <c r="L10" t="n">
-        <v>1.418420363080166</v>
+        <v>0.7771568629241099</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1675642390203861</v>
+        <v>0.6326110877888733</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2080590258125</v>
+        <v>35.8941028507455</v>
       </c>
       <c r="O10" t="n">
-        <v>278.5432315690289</v>
+        <v>72.85868643897133</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9934603168321158</v>
+        <v>0.8364154722463368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8018343942345834</v>
+        <v>0.6120151722775946</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7523910818689672</v>
+        <v>0.7196014568874707</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9927294889440108</v>
+        <v>0.813582719899421</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02722160577514563</v>
+        <v>0.3877268429070112</v>
       </c>
       <c r="G11" t="n">
-        <v>1.325134318222053</v>
+        <v>2.594456329485587</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8856827429647185</v>
+        <v>1.002969330271836</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0364900689035275</v>
+        <v>0.6422779429567905</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2315921238347327</v>
+        <v>1.086471293034376</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1649897141495361</v>
+        <v>0.6226771578490825</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41853972274459</v>
+        <v>0.7772466005056502</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1675881372181855</v>
+        <v>0.6324837006364084</v>
       </c>
       <c r="N11" t="n">
-        <v>137.2074885820494</v>
+        <v>35.89490840083747</v>
       </c>
       <c r="O11" t="n">
-        <v>278.5426611252657</v>
+        <v>72.8594919890633</v>
       </c>
     </row>
   </sheetData>
